--- a/exceldata/cucumberExcelData.xlsx
+++ b/exceldata/cucumberExcelData.xlsx
@@ -12,7 +12,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Meta Front-End Developer Professional Certificate</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>Introduction to Web Development</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Error Message</t>
+  </si>
+  <si>
+    <t>Work Email Address: Must be valid email.
+example@yourdomain.com</t>
+  </si>
+  <si>
+    <t>Last Name: This field is required.</t>
+  </si>
+  <si>
+    <t>First Name: This field is required.</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27,12 +65,32 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -47,20 +105,133 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="50.0" customWidth="true"/>
+    <col min="2" max="2" width="50.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="5">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="15">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>